--- a/石田関係/クモ仕様書(β用12月02日) - コピー.xlsx
+++ b/石田関係/クモ仕様書(β用12月02日) - コピー.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="378">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -9812,7 +9812,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近くの木にジャンプ
+    <t xml:space="preserve">近くの木にジャンプ
 着地後2~3秒の間でその場で停止
 2つ前まで跳んだ木以外で、ジャンプ範囲内で近くの青い木と赤い木を1つずつ選択し、1つの木に50％の確率を入れてジャンプする
 範囲内に片方の色がなかったら一番近くの赤い木を選択しジャンプする
@@ -9820,9 +9820,7 @@
 移動後1秒間その場で停止して木を探す
 移動してもなかった場合、ジャンプ範囲内で一番近くの赤い木を選択しジャンプする
 その場合でもジャンプができなかった場合は、1つ前に跳んだ木にジャンプする
-もし移動した先にジャンプできる青い木がなかった場合、ステージ全体を表示し、最も近くの青い木を選択し、向かう方向にある一番近くの自分の赤い糸を選択しどの糸を経由して向かうさせてジャンプ範囲内にある一番近い赤い糸を選択しその糸に跳べるジャンプ範囲内で一番遠い着地地点に跳ぶ
-糸もなかったら再び十字いずれか一方向に2秒間ランダム移動
-以後ジャンプができるまで繰り返し</t>
+</t>
     <rPh sb="44" eb="47">
       <t>ハンイナイ</t>
     </rPh>
@@ -10301,6 +10299,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10341,9 +10342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19611,15 +19609,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7913</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>205485</xdr:rowOff>
+      <xdr:rowOff>196422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19628,8 +19626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="1274738"/>
-          <a:ext cx="1943100" cy="435697"/>
+          <a:off x="6610349" y="922313"/>
+          <a:ext cx="3629025" cy="779059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19738,8 +19736,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>着地地点切り替え</a:t>
+            <a:t>回押しで着地地点切り替え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>長押しの場合は敵に向く</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27329,10 +27339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27438,10 +27448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27522,10 +27532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -27628,10 +27638,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -27721,10 +27731,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -27748,140 +27758,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27912,10 +27922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -28017,10 +28027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -28104,10 +28114,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -28181,11 +28191,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -28276,10 +28286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -28486,8 +28496,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -28496,10 +28506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -29092,9 +29102,9 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -29155,14 +29165,14 @@
       <c r="B11" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="47" t="s">
         <v>373</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="338.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="244.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
         <v>372</v>
       </c>
@@ -29198,8 +29208,12 @@
       <c r="B14" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="28"/>
@@ -29207,108 +29221,70 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
-        <v>245</v>
+        <v>151</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="28"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="26" t="s">
+    <row r="19" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="23" t="s">
+    <row r="20" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -29596,10 +29572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29631,10 +29607,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29721,10 +29697,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -29901,10 +29877,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">

--- a/石田関係/クモ仕様書(β用12月02日) - コピー.xlsx
+++ b/石田関係/クモ仕様書(β用12月02日) - コピー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="12" activeTab="19"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -28496,7 +28496,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -28671,8 +28671,8 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
